--- a/data/excel_files_reduced/test_excel_10_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_10_reduced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEB48E-0BCB-7641-BFC0-9C7BDCAB9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F5FB75-DF3D-7E40-8FDE-2846B612FB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Product_ID</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Stock_Alert</t>
-  </si>
-  <si>
-    <t>Lookup_Product_Name</t>
   </si>
   <si>
     <t>Device</t>
@@ -353,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM1000"/>
+  <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -369,15 +366,13 @@
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="39" width="8.6640625" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="38" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,13 +412,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -439,14 +432,13 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -479,23 +471,20 @@
         <v>OK</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f>VLOOKUP(A2,A:B,2,FALSE)</f>
-        <v>Laptop</v>
-      </c>
-      <c r="M2" s="1" t="str">
         <f>B2</f>
         <v>Laptop</v>
       </c>
-      <c r="N2" s="1">
+      <c r="M2" s="1">
         <f>INDEX(F:F, MATCH(B2, B:B, 0))</f>
         <v>60</v>
       </c>
-      <c r="P2" s="1">
+      <c r="O2" s="1">
         <f>COUNTIF(F:F, "&lt;50")</f>
         <v>0</v>
       </c>
+      <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -508,14 +497,13 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>40</v>
@@ -548,26 +536,22 @@
         <v>OK</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3" si="3">VLOOKUP(A3,A:B,2,FALSE)</f>
+        <f t="shared" ref="L3" si="3">B3</f>
         <v>Monitor</v>
       </c>
-      <c r="M3" s="1" t="str">
-        <f t="shared" ref="M3" si="4">B3</f>
-        <v>Monitor</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <f>INDEX(F:F, MATCH(B3, B:B, 0))</f>
         <v>50</v>
       </c>
-      <c r="AA3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -581,15 +565,14 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -603,15 +586,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -625,15 +607,14 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -647,15 +628,14 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -669,15 +649,14 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -691,15 +670,14 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -713,15 +691,14 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -735,15 +712,14 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -757,15 +733,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -779,15 +754,14 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -801,15 +775,14 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -823,15 +796,14 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -845,15 +817,14 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -867,15 +838,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -889,15 +859,14 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -911,15 +880,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -933,15 +901,14 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-    </row>
-    <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -955,15 +922,14 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-    </row>
-    <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -977,15 +943,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-    </row>
-    <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -999,15 +964,14 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-    </row>
-    <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1021,15 +985,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-    </row>
-    <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1043,15 +1006,14 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-    </row>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1065,15 +1027,14 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-    </row>
-    <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1087,15 +1048,14 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-    </row>
-    <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1109,15 +1069,14 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-    </row>
-    <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1131,15 +1090,14 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-    </row>
-    <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1153,15 +1111,14 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-    </row>
-    <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1175,15 +1132,14 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-    </row>
-    <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1197,15 +1153,14 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-    </row>
-    <row r="33" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1219,15 +1174,14 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-    </row>
-    <row r="34" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1241,15 +1195,14 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-    </row>
-    <row r="35" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1263,15 +1216,14 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-    </row>
-    <row r="36" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1285,15 +1237,14 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-    </row>
-    <row r="37" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1307,15 +1258,14 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-    </row>
-    <row r="38" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1329,15 +1279,14 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-    </row>
-    <row r="39" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1351,15 +1300,14 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-    </row>
-    <row r="40" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1373,15 +1321,14 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-    </row>
-    <row r="41" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1395,15 +1342,14 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-    </row>
-    <row r="42" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1417,15 +1363,14 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-    </row>
-    <row r="43" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1439,15 +1384,14 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-    </row>
-    <row r="44" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1461,15 +1405,14 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-    </row>
-    <row r="45" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1483,15 +1426,14 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-    </row>
-    <row r="46" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1505,15 +1447,14 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-    </row>
-    <row r="47" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1527,15 +1468,14 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-    </row>
-    <row r="48" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
